--- a/_site/nopublish/schedule.xlsx
+++ b/_site/nopublish/schedule.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FDC2539C-8C82-44E2-A735-8DCA192141F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF66759-00C2-4631-A556-7A06CC7B90F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2745" windowWidth="21600" windowHeight="11145" activeTab="2"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="assignments" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="218">
   <si>
     <t>Week</t>
   </si>
@@ -664,9 +675,6 @@
     <t>Draft Data Prep Script</t>
   </si>
   <si>
-    <t>Peer Review of Draft Data Prep Script</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
@@ -674,14 +682,20 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Peer Review of Script</t>
+  </si>
+  <si>
+    <t>&lt;p style="color:red;"&gt;Final Project: Peer Review of Script&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1038,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1180,17 +1194,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1237,7 +1240,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1248,57 +1251,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1654,12 +1655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1921,7 +1922,7 @@
       <c r="N7" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="42" t="s">
         <v>49</v>
       </c>
       <c r="P7" s="28" t="s">
@@ -2782,6 +2783,9 @@
       <c r="F34" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="M34" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="P34" s="2" t="s">
         <v>149</v>
       </c>
@@ -2808,164 +2812,185 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1">
-      <c r="A36" s="3">
+    <row r="36" spans="1:19" s="6" customFormat="1">
+      <c r="A36" s="6">
         <v>8</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="38"/>
+      <c r="D36" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="46" customFormat="1">
-      <c r="A37" s="44">
+    <row r="37" spans="1:19" s="44" customFormat="1">
+      <c r="A37" s="17">
         <v>9</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="18">
         <v>44524</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="46" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="K37" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44" t="s">
+      <c r="L37" s="17"/>
+      <c r="M37" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="N37" s="44" t="s">
+      <c r="N37" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44" t="s">
+      <c r="O37" s="17"/>
+      <c r="P37" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="R37" s="44"/>
-    </row>
-    <row r="38" spans="1:19" s="26" customFormat="1">
-      <c r="A38" s="6">
+      <c r="R37" s="17"/>
+    </row>
+    <row r="38" spans="1:19" s="13" customFormat="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+    </row>
+    <row r="39" spans="1:19" s="26" customFormat="1">
+      <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B39" s="38">
         <v>44531</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="26" customFormat="1">
-      <c r="A39" s="2">
+    <row r="40" spans="1:19" s="26" customFormat="1">
+      <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="17">
+    <row r="41" spans="1:19">
+      <c r="A41" s="17">
         <v>11</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B41" s="18">
         <v>44538</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="O2" r:id="rId2" location="section-a-quick-tour-of-r-studio"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="R6" r:id="rId4" location="section-a-quick-tour-of-r-studio"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O2" r:id="rId2" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R6" r:id="rId4" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O7" r:id="rId5" xr:uid="{093D27B3-CEE9-47CA-B053-E07A545793E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,18 +3885,18 @@
     <sortCondition ref="B2:B142"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3909,7 +3934,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1">
@@ -4423,7 +4448,7 @@
         <v>44469</v>
       </c>
       <c r="D23" s="39">
-        <v>44503</v>
+        <v>44517</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>212</v>
@@ -4443,7 +4468,7 @@
         <v>44524</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H24" s="12">
         <v>25</v>
@@ -4460,7 +4485,7 @@
         <v>44538</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="12">
         <v>25</v>
@@ -4477,7 +4502,7 @@
         <v>44545</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="12">
         <v>110</v>
@@ -4488,15 +4513,16 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
